--- a/front-end/src/assets/siswa.xlsx
+++ b/front-end/src/assets/siswa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web_Sekolah_Air_Bersih\front-end\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E215A121-52BF-4D36-9135-0AE2C2830BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566A8CC-CE06-4CC5-803E-98B0E1DC817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{AE76E5A3-99B1-4F5C-9B3D-C392EB3DDF9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AE76E5A3-99B1-4F5C-9B3D-C392EB3DDF9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -43,16 +43,41 @@
   </si>
   <si>
     <t>x-10</t>
+  </si>
+  <si>
+    <t>x-11</t>
+  </si>
+  <si>
+    <t>x-12</t>
+  </si>
+  <si>
+    <t>agusa</t>
+  </si>
+  <si>
+    <t>agusaa</t>
+  </si>
+  <si>
+    <t>agusasg</t>
+  </si>
+  <si>
+    <t>asgu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -395,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA66441A-C855-4510-AD9E-D66A022B4A70}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,7 +456,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>123123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>